--- a/CNA 명령어 정리-20200802.xlsx
+++ b/CNA 명령어 정리-20200802.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\veaut\OneDrive\문서\Daisy\20200719 - CNA 명령어 정리하기\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hanjm\참고\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{230CED63-B8A4-4CC7-8FD9-442071157BD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="class (2)" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="316">
   <si>
     <t>topic 명 재지정 주의</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -843,10 +842,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>git remote add origin https://github.com/niceduck76/aws-order.git</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>리모트 레파지토리 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -877,9 +872,6 @@
   <si>
     <t>로컬 레파지토리 서버로 commit 적제</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Git push –u origin master   </t>
   </si>
   <si>
     <t>로컬 레파지토리에 커밋된 리소스를 origin이라고 등록된 주소에 올려주는 과정</t>
@@ -1019,14 +1011,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kubectl create clusterrolebinding tiller --clusterrole cluster-admin --serviceaccount=kube-system:tiller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>helm init --service-account tiller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kubectl patch deploy --namespace kube-system tiller-deploy -p '{"spec":{"template":{"spec":{"serviceAccount":"tiller"}}}}'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1043,10 +1027,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">kubectl --namespace kube-system create sa tiller </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> (kubectl config current-context 명령으로 클러스터명 확인)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1080,10 +1060,6 @@
   </si>
   <si>
     <t>kubectl describe pod/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kubectl create deply my-order -–image=052937454741.dkr.ecr.us-east-2.amazonaws.com/admin04-order:v1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1303,11 +1279,27 @@
     <t>TIPS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Git push –u origin master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git remote add origin https://github.com/eoboon/a-order.git
+git remote add origin https://github.com/eoboon/a-management.git
+git remote add origin https://github.com/eoboon/a-driver.git
+git remote add origin https://github.com/eoboon/a-orderstatus.git
+git remote add origin https://github.com/eoboon/a-gateway.git</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kubectl create deploy my-order -–image=052937454741.dkr.ecr.us-east-2.amazonaws.com/admin04-order:v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1409,7 +1401,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1419,6 +1411,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1455,7 +1453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1517,6 +1515,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1799,36 +1806,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F219"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="20"/>
     <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="50.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>17</v>
@@ -1840,7 +1847,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>122</v>
       </c>
@@ -1852,7 +1859,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
@@ -1862,7 +1869,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
@@ -1872,7 +1879,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
@@ -1882,7 +1889,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1890,7 +1897,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>176</v>
       </c>
@@ -1902,7 +1909,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="2" t="s">
         <v>178</v>
@@ -1912,7 +1919,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
       <c r="B9" s="2" t="s">
         <v>179</v>
@@ -1924,7 +1931,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1932,7 +1939,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1940,7 +1947,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>23</v>
       </c>
@@ -1950,7 +1957,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1959,7 +1966,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>25</v>
       </c>
@@ -1969,7 +1976,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
@@ -1980,7 +1987,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
       <c r="B16" s="2" t="s">
         <v>27</v>
@@ -1994,7 +2001,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="B17" s="2" t="s">
         <v>27</v>
@@ -2006,7 +2013,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
@@ -2017,7 +2024,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="51" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
@@ -2029,7 +2036,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="51" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
@@ -2039,7 +2046,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
@@ -2049,7 +2056,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="51" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
@@ -2061,7 +2068,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
@@ -2071,7 +2078,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>51</v>
       </c>
@@ -2081,7 +2088,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="2" t="s">
         <v>47</v>
@@ -2093,7 +2100,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
       <c r="B26" s="2" t="s">
         <v>50</v>
@@ -2109,7 +2116,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
       <c r="B27" s="2" t="s">
         <v>50</v>
@@ -2123,7 +2130,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="51" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
       <c r="B28" s="2" t="s">
         <v>50</v>
@@ -2139,7 +2146,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
       <c r="B29" s="2" t="s">
         <v>50</v>
@@ -2153,7 +2160,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="51" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>50</v>
       </c>
@@ -2166,7 +2173,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
       <c r="B31" s="2" t="s">
         <v>50</v>
@@ -2180,7 +2187,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
       <c r="B32" s="2" t="s">
         <v>50</v>
@@ -2194,7 +2201,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="19"/>
       <c r="B33" s="2" t="s">
         <v>50</v>
@@ -2208,7 +2215,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="19"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2216,7 +2223,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
         <v>193</v>
       </c>
@@ -2226,7 +2233,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>56</v>
       </c>
@@ -2239,7 +2246,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" s="19"/>
       <c r="B37" s="2" t="s">
         <v>56</v>
@@ -2251,7 +2258,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
       <c r="B38" s="2" t="s">
         <v>56</v>
@@ -2263,7 +2270,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="19"/>
       <c r="B39" s="2" t="s">
         <v>56</v>
@@ -2275,7 +2282,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="19"/>
       <c r="B40" s="2" t="s">
         <v>56</v>
@@ -2287,7 +2294,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="19"/>
       <c r="B41" s="2" t="s">
         <v>138</v>
@@ -2301,7 +2308,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="19"/>
       <c r="B42" s="2" t="s">
         <v>56</v>
@@ -2313,7 +2320,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="19"/>
       <c r="B43" s="2" t="s">
         <v>56</v>
@@ -2325,7 +2332,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
         <v>131</v>
       </c>
@@ -2335,7 +2342,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
         <v>137</v>
       </c>
@@ -2348,7 +2355,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="19"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
@@ -2358,7 +2365,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="19"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
@@ -2368,7 +2375,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="19"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
@@ -2378,7 +2385,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" ht="51" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A49" s="19"/>
       <c r="B49" s="2" t="s">
         <v>56</v>
@@ -2394,7 +2401,7 @@
       </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="19"/>
       <c r="B50" s="2" t="s">
         <v>56</v>
@@ -2408,7 +2415,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="19"/>
       <c r="B51" s="2" t="s">
         <v>56</v>
@@ -2422,7 +2429,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A52" s="19"/>
       <c r="B52" s="2" t="s">
         <v>56</v>
@@ -2434,11 +2441,11 @@
         <v>150</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" ht="68" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A53" s="19"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
@@ -2450,7 +2457,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="19"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2460,7 +2467,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" ht="68" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A55" s="19"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
@@ -2474,7 +2481,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A56" s="19"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2484,7 +2491,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="19"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
@@ -2496,7 +2503,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="19"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2506,7 +2513,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" ht="51" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A59" s="19"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
@@ -2518,7 +2525,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" ht="51" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A60" s="19"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
@@ -2530,7 +2537,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="19"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2538,7 +2545,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A62" s="19" t="s">
         <v>200</v>
       </c>
@@ -2547,10 +2554,10 @@
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="19"/>
       <c r="B63" s="2" t="s">
         <v>50</v>
@@ -2562,17 +2569,17 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="19"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="19"/>
       <c r="B65" s="2" t="s">
         <v>204</v>
@@ -2585,16 +2592,16 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A66" s="19"/>
       <c r="B66" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>203</v>
@@ -2604,77 +2611,77 @@
         <v>205</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" ht="151.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="19"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>206</v>
+        <v>314</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="19"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="19"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="19"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="19"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A72" s="19"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="10" t="s">
-        <v>215</v>
+        <v>313</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="19"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2682,9 +2689,9 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A74" s="19" t="s">
-        <v>221</v>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="21" t="s">
+        <v>219</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2692,202 +2699,203 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="22"/>
       <c r="B75" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A76" s="19"/>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="23"/>
       <c r="B76" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" ht="34" x14ac:dyDescent="0.45">
-      <c r="A77" s="19"/>
+    <row r="77" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A77" s="23"/>
       <c r="B77" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A78" s="19"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="23"/>
       <c r="B78" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A79" s="19"/>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="23"/>
       <c r="B79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A80" s="19" t="s">
-        <v>228</v>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="23" t="s">
+        <v>226</v>
       </c>
       <c r="B80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6" ht="68" x14ac:dyDescent="0.45">
-      <c r="A81" s="19"/>
+    <row r="81" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A81" s="23"/>
       <c r="B81" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A82" s="23"/>
+      <c r="B82" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>232</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="34" x14ac:dyDescent="0.45">
-      <c r="A82" s="19"/>
-      <c r="B82" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="23"/>
+      <c r="B83" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A83" s="19"/>
-      <c r="B83" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A84" s="19"/>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="23"/>
       <c r="B84" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A85" s="23"/>
+      <c r="B85" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="34" x14ac:dyDescent="0.45">
-      <c r="A85" s="19"/>
-      <c r="B85" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A86" s="19"/>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="23"/>
       <c r="B86" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6" ht="51" x14ac:dyDescent="0.45">
-      <c r="A87" s="19"/>
+    <row r="87" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A87" s="23"/>
       <c r="B87" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="34" x14ac:dyDescent="0.45">
-      <c r="A88" s="19"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A88" s="23"/>
       <c r="B88" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A89" s="19"/>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="23"/>
       <c r="B89" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="19" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2895,63 +2903,63 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6" ht="51" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B91" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="19"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="19"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6" ht="68" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A94" s="19"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2959,61 +2967,61 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" ht="51" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A97" s="19"/>
       <c r="B97" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="19"/>
       <c r="B98" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>256</v>
+        <v>59</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A99" s="19"/>
       <c r="B99" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2" t="s">
-        <v>250</v>
+        <v>54</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A100" s="19"/>
       <c r="B100" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2" t="s">
-        <v>251</v>
+        <v>55</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="19"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3021,93 +3029,93 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" ht="51" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A102" s="19"/>
       <c r="B102" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C102" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A103" s="19"/>
       <c r="B103" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="19"/>
       <c r="B104" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A105" s="19"/>
       <c r="B105" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="19" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="19"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="19"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="19"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -3115,7 +3123,7 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="19"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3123,9 +3131,9 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="17" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -3133,9 +3141,9 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="20" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3143,13 +3151,13 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:6" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6" s="13" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A113" s="20"/>
       <c r="B113" s="12" t="s">
         <v>56</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D113" s="12" t="s">
         <v>53</v>
@@ -3159,7 +3167,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="19"/>
       <c r="B114" s="12" t="s">
         <v>56</v>
@@ -3173,7 +3181,7 @@
       <c r="E114" s="12"/>
       <c r="F114" s="12"/>
     </row>
-    <row r="115" spans="1:6" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:6" s="13" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A115" s="19"/>
       <c r="B115" s="12" t="s">
         <v>56</v>
@@ -3185,7 +3193,7 @@
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
     </row>
-    <row r="116" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="19"/>
       <c r="B116" s="12" t="s">
         <v>56</v>
@@ -3197,7 +3205,7 @@
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
     </row>
-    <row r="117" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="19"/>
       <c r="B117" s="12" t="s">
         <v>56</v>
@@ -3211,9 +3219,9 @@
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
     </row>
-    <row r="118" spans="1:6" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:6" s="13" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A118" s="14" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B118" s="12"/>
       <c r="C118" s="3"/>
@@ -3221,13 +3229,13 @@
       <c r="E118" s="12"/>
       <c r="F118" s="12"/>
     </row>
-    <row r="119" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A119" s="19"/>
       <c r="B119" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>64</v>
@@ -3235,7 +3243,7 @@
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="19"/>
       <c r="B120" s="2" t="s">
         <v>56</v>
@@ -3247,7 +3255,7 @@
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="19"/>
       <c r="B121" s="2" t="s">
         <v>56</v>
@@ -3259,7 +3267,7 @@
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="1:6" ht="23" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A122" s="19"/>
       <c r="B122" s="2" t="s">
         <v>56</v>
@@ -3271,7 +3279,7 @@
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="19"/>
       <c r="B123" s="2" t="s">
         <v>56</v>
@@ -3283,7 +3291,7 @@
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="19"/>
       <c r="B124" s="2" t="s">
         <v>56</v>
@@ -3297,7 +3305,7 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B125" s="2" t="s">
         <v>56</v>
       </c>
@@ -3312,7 +3320,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A126" s="19"/>
       <c r="B126" s="2" t="s">
         <v>56</v>
@@ -3325,12 +3333,12 @@
       </c>
       <c r="E126" s="2"/>
       <c r="F126" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="19" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -3338,23 +3346,23 @@
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:6" ht="51" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A128" s="19"/>
       <c r="B128" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="19"/>
       <c r="B129" s="2" t="s">
         <v>56</v>
@@ -3366,13 +3374,13 @@
         <v>75</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="51" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A130" s="19"/>
       <c r="B130" s="2" t="s">
         <v>56</v>
@@ -3386,23 +3394,23 @@
       </c>
       <c r="F130" s="2"/>
     </row>
-    <row r="131" spans="1:6" ht="51" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A131" s="19"/>
       <c r="B131" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="19" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -3410,7 +3418,7 @@
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="19"/>
       <c r="B133" s="2" t="s">
         <v>56</v>
@@ -3424,7 +3432,7 @@
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A134" s="19"/>
       <c r="B134" s="2" t="s">
         <v>56</v>
@@ -3436,7 +3444,7 @@
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A135" s="19"/>
       <c r="B135" s="2" t="s">
         <v>56</v>
@@ -3448,7 +3456,7 @@
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A136" s="19"/>
       <c r="B136" s="2" t="s">
         <v>56</v>
@@ -3460,7 +3468,7 @@
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="19"/>
       <c r="B137" s="2" t="s">
         <v>56</v>
@@ -3472,19 +3480,19 @@
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="19"/>
       <c r="B138" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
     </row>
-    <row r="139" spans="1:6" ht="51" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A139" s="19"/>
       <c r="B139" s="2" t="s">
         <v>56</v>
@@ -3502,7 +3510,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="19"/>
       <c r="B140" s="2" t="s">
         <v>56</v>
@@ -3514,7 +3522,7 @@
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="19"/>
       <c r="B141" s="2" t="s">
         <v>56</v>
@@ -3526,7 +3534,7 @@
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
     </row>
-    <row r="142" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A142" s="19"/>
       <c r="B142" s="2" t="s">
         <v>56</v>
@@ -3540,19 +3548,19 @@
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="19"/>
       <c r="B143" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="19"/>
       <c r="B144" s="2" t="s">
         <v>56</v>
@@ -3564,7 +3572,7 @@
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="19"/>
       <c r="B145" s="2" t="s">
         <v>56</v>
@@ -3576,7 +3584,7 @@
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
     </row>
-    <row r="146" spans="1:6" ht="68" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A146" s="19"/>
       <c r="B146" s="2" t="s">
         <v>56</v>
@@ -3589,10 +3597,10 @@
         <v>98</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="19"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -3600,7 +3608,7 @@
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="19" t="s">
         <v>99</v>
       </c>
@@ -3610,7 +3618,7 @@
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="19"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2" t="s">
@@ -3620,7 +3628,7 @@
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
     </row>
-    <row r="150" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A150" s="19"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2" t="s">
@@ -3632,23 +3640,23 @@
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
     </row>
-    <row r="151" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A151" s="19"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A152" s="19"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2" t="s">
@@ -3658,29 +3666,29 @@
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="19"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="19"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="19"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -3690,27 +3698,27 @@
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="19"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="19"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="19"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -3720,27 +3728,27 @@
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="19"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="19"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="19"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -3750,37 +3758,37 @@
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="19"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="19"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="19"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="19"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -3790,7 +3798,7 @@
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="19"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -3798,7 +3806,7 @@
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="19"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2" t="s">
@@ -3810,7 +3818,7 @@
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="19"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -3820,7 +3828,7 @@
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="19"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -3830,7 +3838,7 @@
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="19"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -3840,7 +3848,7 @@
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="19"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -3850,7 +3858,7 @@
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="19"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -3860,7 +3868,7 @@
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="19"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -3870,19 +3878,19 @@
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="19"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="19"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -3891,10 +3899,10 @@
       </c>
       <c r="E175" s="2"/>
       <c r="F175" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="19"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -3904,7 +3912,7 @@
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="19"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -3914,7 +3922,7 @@
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="19"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -3923,10 +3931,10 @@
       </c>
       <c r="E178" s="2"/>
       <c r="F178" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="19"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -3936,7 +3944,7 @@
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="19"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -3946,7 +3954,7 @@
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="19"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -3954,27 +3962,27 @@
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
     </row>
-    <row r="182" spans="1:6" ht="51" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A182" s="19"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
     </row>
-    <row r="183" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A183" s="19"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="19"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -3985,27 +3993,27 @@
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="19"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
     </row>
-    <row r="186" spans="1:6" ht="51" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A186" s="19"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="19"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2" t="s">
@@ -4017,7 +4025,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="19"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2" t="s">
@@ -4027,19 +4035,19 @@
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
     </row>
-    <row r="189" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A189" s="19"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="19"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -4051,7 +4059,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="19"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -4063,7 +4071,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A192" s="19"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2" t="s">
@@ -4077,16 +4085,16 @@
       </c>
       <c r="F192" s="2"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="19"/>
       <c r="B193" s="2"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
     </row>
-    <row r="194" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A194" s="19"/>
       <c r="B194" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>159</v>
@@ -4095,7 +4103,7 @@
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
     </row>
-    <row r="195" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A195" s="19"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2" t="s">
@@ -4107,7 +4115,7 @@
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
     </row>
-    <row r="196" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A196" s="19"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -4117,7 +4125,7 @@
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
     </row>
-    <row r="197" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A197" s="19"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -4127,7 +4135,7 @@
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
     </row>
-    <row r="198" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A198" s="19"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2" t="s">
@@ -4139,7 +4147,7 @@
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="19"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -4149,7 +4157,7 @@
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
     </row>
-    <row r="200" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A200" s="19"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -4159,7 +4167,7 @@
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="19"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -4167,9 +4175,9 @@
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
     </row>
-    <row r="202" spans="1:6" ht="21" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A202" s="18" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -4177,7 +4185,7 @@
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
     </row>
-    <row r="203" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="B203" s="2" t="s">
         <v>45</v>
       </c>
@@ -4192,7 +4200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="51" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A204" s="19"/>
       <c r="B204" s="2" t="s">
         <v>46</v>
@@ -4206,7 +4214,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A205" s="19"/>
       <c r="B205" s="2" t="s">
         <v>47</v>
@@ -4218,7 +4226,7 @@
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
     </row>
-    <row r="206" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A206" s="19"/>
       <c r="B206" s="2" t="s">
         <v>48</v>
@@ -4230,7 +4238,7 @@
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
     </row>
-    <row r="207" spans="1:6" ht="68" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A207" s="19"/>
       <c r="B207" s="2" t="s">
         <v>49</v>
@@ -4242,7 +4250,7 @@
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="19"/>
       <c r="B208" s="2" t="s">
         <v>44</v>
@@ -4254,7 +4262,7 @@
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="19"/>
       <c r="B209" s="2" t="s">
         <v>11</v>
@@ -4266,7 +4274,7 @@
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
     </row>
-    <row r="210" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A210" s="19"/>
       <c r="B210" s="2" t="s">
         <v>80</v>
@@ -4278,7 +4286,7 @@
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
     </row>
-    <row r="211" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A211" s="19"/>
       <c r="B211" s="2" t="s">
         <v>104</v>
@@ -4292,7 +4300,7 @@
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
     </row>
-    <row r="212" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A212" s="19"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2" t="s">
@@ -4304,7 +4312,7 @@
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="19"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2" t="s">
@@ -4316,7 +4324,7 @@
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
     </row>
-    <row r="214" spans="1:6" ht="34" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A214" s="19"/>
       <c r="B214" s="2" t="s">
         <v>124</v>
@@ -4330,7 +4338,7 @@
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="19"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -4338,7 +4346,7 @@
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="19"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -4346,7 +4354,7 @@
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="19"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -4354,7 +4362,7 @@
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="19"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -4362,7 +4370,7 @@
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="19"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -4373,16 +4381,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D139" r:id="rId1" display="http://order:8080/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D140" r:id="rId2" display="http://order.istio-shop2:8080/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D141" r:id="rId3" display="http://order.istio-shop2.svc.cluster.local:8080/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D146" r:id="rId4" display="http://order:8080/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D45" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D199" r:id="rId6" display="http://httpbin:8000/get" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{47ED5AEB-5FFE-4C28-8158-9B6849DA81D0}"/>
+    <hyperlink ref="D139" r:id="rId1" display="http://order:8080/"/>
+    <hyperlink ref="D140" r:id="rId2" display="http://order.istio-shop2:8080/"/>
+    <hyperlink ref="D141" r:id="rId3" display="http://order.istio-shop2.svc.cluster.local:8080/"/>
+    <hyperlink ref="D146" r:id="rId4" display="http://order:8080/"/>
+    <hyperlink ref="D45" r:id="rId5"/>
+    <hyperlink ref="D199" r:id="rId6" display="http://httpbin:8000/get"/>
+    <hyperlink ref="C9" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="portrait" r:id="rId8"/>
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="43" max="16383" man="1"/>
     <brk id="89" max="16383" man="1"/>
